--- a/Xray-best-practices/scan-report/vulnerable_paths.xlsx
+++ b/Xray-best-practices/scan-report/vulnerable_paths.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alex-maven-remote/org/apache/logging/log4j/log4j-core/2.14.0/log4j-core-2.14.0.jar</t>
+          <t>fan-maven-remote/org/apache/logging/log4j/log4j-core/2.14.0/log4j-core-2.14.0.jar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alex-maven-remote/org/codehaus/plexus/plexus-archiver/4.7.1/plexus-archiver-4.7.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0/plexus-utils-3.0.jar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.4.1/plexus-utils-1.4.1.jar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.0.4/plexus-utils-1.0.4.jar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.6/maven-core-2.0.6.jar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.5/plexus-utils-2.0.5.jar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.15/plexus-utils-1.5.15.jar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.8/plexus-utils-1.5.8.jar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.4/plexus-utils-2.0.4.jar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.0/maven-core-3.0.jar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alex-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.5/plexus-utils-1.5.5.jar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,10 +580,394 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>alex-maven-remote/org/apache/logging/log4j/log4j-core/2.14.0/log4j-core-2.14.0.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.2.1/maven-core-2.2.1.jar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/surefire/surefire-api/2.12.4/surefire-api-2.12.4.jar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/surefire/maven-surefire-common/2.12.4/maven-surefire-common-2.12.4.jar</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.8/plexus-utils-3.0.8.jar</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.9/maven-core-2.0.9.jar</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/2.1/plexus-archiver-2.1.jar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.5/plexus-utils-3.0.5.jar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.6/plexus-utils-1.5.6.jar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.10/plexus-utils-3.0.10.jar</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.1/plexus-utils-2.1.jar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.1.0/maven-core-3.1.0.jar</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.0/plexus-archiver-4.2.0.jar</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.2/plexus-archiver-4.2.2.jar</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/ws/spring-xml/2.2.3.RELEASE/spring-xml-2.2.3.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/spring-core/4.0.9.RELEASE/spring-core-4.0.9.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.2.5/maven-core-3.2.5.jar</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.4.0/plexus-archiver-4.4.0.jar</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.7.1/plexus-archiver-4.7.1.jar</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/zookeeper/zookeeper/3.3.0/zookeeper-3.3.0.jar</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.2.1/maven-shared-utils-3.2.1.jar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/0.1/maven-shared-utils-0.1.jar</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.0.0/maven-shared-utils-3.0.0.jar</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/alibaba/fastjson/1.2.31/fastjson-1.2.31.jar</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/logging/log4j/log4j-core/2.14.0/log4j-core-2.14.0.jar</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>critical</t>
         </is>

--- a/Xray-best-practices/scan-report/vulnerable_paths.xlsx
+++ b/Xray-best-practices/scan-report/vulnerable_paths.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>severity</t>
+          <t>severity_or_license</t>
         </is>
       </c>
     </row>
@@ -460,55 +460,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0/plexus-utils-3.0.jar</t>
+          <t>fan-maven-remote/org/springframework/boot/spring-boot/3.1.11/spring-boot-3.1.11.jar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.4.1/plexus-utils-1.4.1.jar</t>
+          <t>fan-maven-remote/org/apache/zookeeper/zookeeper/3.3.0/zookeeper-3.3.0.jar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.0.4/plexus-utils-1.0.4.jar</t>
+          <t>fan-maven-remote/com/alibaba/fastjson/1.2.31/fastjson-1.2.31.jar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.6/maven-core-2.0.6.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0/plexus-utils-3.0.jar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.5/plexus-utils-2.0.5.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0/plexus-utils-3.0.jar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,19 +520,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.15/plexus-utils-1.5.15.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.4.1/plexus-utils-1.4.1.jar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.8/plexus-utils-1.5.8.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.4.1/plexus-utils-1.4.1.jar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,19 +544,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.4/plexus-utils-2.0.4.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.0.4/plexus-utils-1.0.4.jar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/3.0/maven-core-3.0.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.0.4/plexus-utils-1.0.4.jar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.5/plexus-utils-1.5.5.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.6/maven-core-2.0.6.jar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,19 +580,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/2.2.1/maven-core-2.2.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.5/plexus-utils-2.0.5.jar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/surefire/surefire-api/2.12.4/surefire-api-2.12.4.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.5/plexus-utils-2.0.5.jar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,19 +604,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/surefire/maven-surefire-common/2.12.4/maven-surefire-common-2.12.4.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.15/plexus-utils-1.5.15.jar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.8/plexus-utils-3.0.8.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.15/plexus-utils-1.5.15.jar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,19 +628,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.9/maven-core-2.0.9.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.8/plexus-utils-1.5.8.jar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/2.1/plexus-archiver-2.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.8/plexus-utils-1.5.8.jar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,19 +652,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.5/plexus-utils-3.0.5.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.4/plexus-utils-2.0.4.jar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.6/plexus-utils-1.5.6.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.0.4/plexus-utils-2.0.4.jar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.10/plexus-utils-3.0.10.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.0/maven-core-3.0.jar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,19 +688,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.1/plexus-utils-2.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.5/plexus-utils-1.5.5.jar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/3.1.0/maven-core-3.1.0.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.5/plexus-utils-1.5.5.jar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.0/plexus-archiver-4.2.0.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.2.1/maven-core-2.2.1.jar</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,31 +724,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.2/plexus-archiver-4.2.2.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.22/plexus-utils-3.0.22.jar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/springframework/ws/spring-xml/2.2.3.RELEASE/spring-xml-2.2.3.RELEASE.jar</t>
+          <t>fan-maven-remote/org/apache/maven/surefire/surefire-api/2.12.4/surefire-api-2.12.4.jar</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/springframework/spring-core/4.0.9.RELEASE/spring-core-4.0.9.RELEASE.jar</t>
+          <t>fan-maven-remote/org/apache/maven/surefire/surefire-api/2.12.4/surefire-api-2.12.4.jar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,19 +760,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/maven-core/3.2.5/maven-core-3.2.5.jar</t>
+          <t>fan-maven-remote/org/apache/maven/surefire/maven-surefire-common/2.12.4/maven-surefire-common-2.12.4.jar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.4.0/plexus-archiver-4.4.0.jar</t>
+          <t>fan-maven-remote/org/apache/maven/surefire/maven-surefire-common/2.12.4/maven-surefire-common-2.12.4.jar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,19 +784,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.7.1/plexus-archiver-4.7.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.8/plexus-utils-3.0.8.jar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/zookeeper/zookeeper/3.3.0/zookeeper-3.3.0.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.8/plexus-utils-3.0.8.jar</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.2.1/maven-shared-utils-3.2.1.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/2.0.9/maven-core-2.0.9.jar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/0.1/maven-shared-utils-0.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/2.1/plexus-archiver-2.1.jar</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,19 +832,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.5/plexus-utils-3.0.5.jar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.5/plexus-utils-3.0.5.jar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.6/plexus-utils-1.5.6.jar</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,43 +868,43 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/1.5.6/plexus-utils-1.5.6.jar</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/xpp3/xpp3_min/1.1.4c/xpp3_min-1.1.4c.jar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.10/plexus-utils-3.0.10.jar</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/3.0.10/plexus-utils-3.0.10.jar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,19 +916,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.1/plexus-utils-2.1.jar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-utils/2.1/plexus-utils-2.1.jar</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.0.0/maven-shared-utils-3.0.0.jar</t>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.1.0/maven-core-3.1.0.jar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fan-maven-remote/com/alibaba/fastjson/1.2.31/fastjson-1.2.31.jar</t>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.0/plexus-archiver-4.2.0.jar</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,10 +964,802 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>fan-maven-remote/commons-io/commons-io/2.6/commons-io-2.6.jar</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.2.2/plexus-archiver-4.2.2.jar</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/ws/spring-xml/2.2.3.RELEASE/spring-xml-2.2.3.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/spring-core/4.0.9.RELEASE/spring-core-4.0.9.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/maven-core/3.2.5/maven-core-3.2.5.jar</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.4.0/plexus-archiver-4.4.0.jar</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/codehaus/plexus/plexus-archiver/4.7.1/plexus-archiver-4.7.1.jar</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/http2/http2-hpack/10.0.15/http2-hpack-10.0.15.jar</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/10.0.1/jetty-http-10.0.1-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/10.0.0/jetty-http-10.0.0-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/11.0.0/jetty-http-11.0.0-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/11.0.0-alpha0/jetty-http-11.0.0-alpha0-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/11.0.0-alpha0/jetty-http-11.0.0-alpha0-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/eclipse/jetty/jetty-http/11.0.0.beta3/jetty-http-11.0.0.beta3-javadoc.jar</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/zookeeper/zookeeper/3.3.0/zookeeper-3.3.0.jar</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.2.1/maven-shared-utils-3.2.1.jar</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/0.1/maven-shared-utils-0.1.jar</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/thoughtworks/xstream/xstream/1.3.1/xstream-1.3.1.jar</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/google/guava/guava/10.0.1/guava-10.0.1.jar</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.19/commons-compress-1.19.jar</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.19/commons-compress-1.19.jar</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.19/commons-compress-1.19.jar</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.19/commons-compress-1.19.jar</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.20/commons-compress-1.20.jar</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.20/commons-compress-1.20.jar</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.20/commons-compress-1.20.jar</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/commons/commons-compress/1.20/commons-compress-1.20.jar</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/apache/maven/shared/maven-shared-utils/3.0.0/maven-shared-utils-3.0.0.jar</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/spring-core/4.0.9.RELEASE/spring-core-4.0.9.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/org/springframework/spring-core/4.0.9.RELEASE/spring-core-4.0.9.RELEASE.jar</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/google/guava/guava/16.0.1/guava-16.0.1.jar</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>fan-maven-remote/com/alibaba/fastjson/1.2.31/fastjson-1.2.31.jar</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>fan-maven-remote/org/apache/logging/log4j/log4j-core/2.14.0/log4j-core-2.14.0.jar</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>critical</t>
         </is>
